--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>pessoa_usuaria_id</t>
   </si>
@@ -184,7 +184,7 @@
     <t>seguindo_artistas_id</t>
   </si>
   <si>
-    <t>primary_key = pessoa_usuaria_id + seguindo_artistas_id</t>
+    <t/>
   </si>
   <si>
     <t>musica_id</t>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>data_reproducao</t>
-  </si>
-  <si>
-    <t>Primary_key=pessoa+musica</t>
   </si>
   <si>
     <t>2022-02-28 10:45:55</t>
@@ -343,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -377,6 +374,12 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -701,16 +704,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="50.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="34.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="50.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="25.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1232,7 +1235,7 @@
       <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="9"/>
@@ -1258,9 +1261,7 @@
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="6">
-        <v>11</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6">
         <v>1</v>
@@ -1284,9 +1285,7 @@
       <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="6">
-        <v>12</v>
-      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6">
         <v>2</v>
@@ -1310,9 +1309,7 @@
       <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="6">
-        <v>13</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <v>3</v>
@@ -1336,9 +1333,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
-        <v>21</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6">
         <v>4</v>
@@ -1362,9 +1357,7 @@
       <c r="B28" s="2">
         <v>3</v>
       </c>
-      <c r="C28" s="6">
-        <v>23</v>
-      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6">
         <v>5</v>
@@ -1388,9 +1381,7 @@
       <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C29" s="6">
-        <v>32</v>
-      </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6">
         <v>6</v>
@@ -1414,9 +1405,7 @@
       <c r="B30" s="2">
         <v>5</v>
       </c>
-      <c r="C30" s="6">
-        <v>45</v>
-      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6">
         <v>7</v>
@@ -1440,9 +1429,7 @@
       <c r="B31" s="6">
         <v>4</v>
       </c>
-      <c r="C31" s="6">
-        <v>54</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6">
         <v>8</v>
@@ -1466,9 +1453,7 @@
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="6">
-        <v>56</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6">
         <v>9</v>
@@ -1492,9 +1477,7 @@
       <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C33" s="6">
-        <v>64</v>
-      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6">
         <v>10</v>
@@ -1518,9 +1501,7 @@
       <c r="B34" s="7">
         <v>1</v>
       </c>
-      <c r="C34" s="6">
-        <v>61</v>
-      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
@@ -1536,9 +1517,7 @@
       <c r="B35" s="7">
         <v>4</v>
       </c>
-      <c r="C35" s="6">
-        <v>74</v>
-      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
@@ -1554,9 +1533,7 @@
       <c r="B36" s="7">
         <v>3</v>
       </c>
-      <c r="C36" s="6">
-        <v>93</v>
-      </c>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
@@ -1572,9 +1549,7 @@
       <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37" s="6">
-        <v>102</v>
-      </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
         <v>70</v>
       </c>
@@ -1598,8 +1573,8 @@
       <c r="F38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>72</v>
+      <c r="G38" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="6"/>
@@ -1616,11 +1591,9 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="7">
-        <v>18</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G39" s="7"/>
       <c r="H39" s="10"/>
       <c r="I39" s="6"/>
       <c r="J39" s="8"/>
@@ -1636,11 +1609,9 @@
         <v>2</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="7">
-        <v>12</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="10"/>
       <c r="I40" s="6"/>
       <c r="J40" s="8"/>
@@ -1656,11 +1627,9 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="7">
-        <v>110</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="10"/>
       <c r="I41" s="6"/>
       <c r="J41" s="8"/>
@@ -1676,11 +1645,9 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="7">
-        <v>22</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="10"/>
       <c r="I42" s="6"/>
       <c r="J42" s="8"/>
@@ -1696,11 +1663,9 @@
         <v>7</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="7">
-        <v>27</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G43" s="7"/>
       <c r="H43" s="10"/>
       <c r="I43" s="6"/>
       <c r="J43" s="8"/>
@@ -1716,11 +1681,9 @@
         <v>10</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="7">
-        <v>310</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="10"/>
       <c r="I44" s="6"/>
       <c r="J44" s="8"/>
@@ -1736,11 +1699,9 @@
         <v>2</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="7">
-        <v>32</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G45" s="7"/>
       <c r="H45" s="10"/>
       <c r="I45" s="6"/>
       <c r="J45" s="8"/>
@@ -1756,11 +1717,9 @@
         <v>8</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="7">
-        <v>48</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="10"/>
       <c r="I46" s="6"/>
       <c r="J46" s="8"/>
@@ -1776,11 +1735,9 @@
         <v>8</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="7">
-        <v>58</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="10"/>
       <c r="I47" s="6"/>
       <c r="J47" s="8"/>
@@ -1796,11 +1753,9 @@
         <v>5</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="7">
-        <v>55</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="10"/>
       <c r="I48" s="6"/>
       <c r="J48" s="8"/>
@@ -1816,11 +1771,9 @@
         <v>7</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="7">
-        <v>67</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G49" s="7"/>
       <c r="H49" s="10"/>
       <c r="I49" s="6"/>
       <c r="J49" s="8"/>
@@ -1836,11 +1789,9 @@
         <v>1</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="7">
-        <v>61</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="10"/>
       <c r="I50" s="6"/>
       <c r="J50" s="8"/>
@@ -1856,11 +1807,9 @@
         <v>4</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="7">
-        <v>74</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G51" s="7"/>
       <c r="H51" s="10"/>
       <c r="I51" s="6"/>
       <c r="J51" s="8"/>
@@ -1876,11 +1825,9 @@
         <v>4</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="7">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="10"/>
       <c r="I52" s="6"/>
       <c r="J52" s="8"/>
@@ -1896,11 +1843,9 @@
         <v>9</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="7">
-        <v>9</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="10"/>
       <c r="I53" s="6"/>
       <c r="J53" s="8"/>
@@ -1916,11 +1861,9 @@
         <v>3</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G54" s="7">
-        <v>103</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="10"/>
       <c r="I54" s="6"/>
       <c r="J54" s="8"/>
